--- a/medicine/Psychotrope/John_Power_&_Son/John_Power_&_Son.xlsx
+++ b/medicine/Psychotrope/John_Power_&_Son/John_Power_&_Son.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>John_Power_%26_Son</t>
+          <t>John_Power_&amp;_Son</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 John Power &amp; Son est une ancienne distillerie de whiskey irlandais fermée depuis 1974.
@@ -492,7 +504,7 @@
 Le dernier membre de la famille siégeant au conseil d’administration de la société est Sir Thomas Talbot qui est décédé en 1936. L’entreprise reste aux mains de la famille jusqu’en 1966, quand Powers s’allie avec les dernières distilleries en fonctionnement en Irlande, la Cork Distillers Company et son rival de Dublin John Jameson &amp; Son, pour former le groupe Irish Distillers.
 La nouvelle entité ainsi créée décide, dans un plan audacieux, de fermer toutes les distilleries existantes pour regrouper l’entière production d’Irish whiskey dans une nouvelle distillerie construite à Midleton dans le Comté de Cork.[Quand ?]
 En 1972, la dernière distillerie indépendante de l’île d’Irlande Bushmills rejoint le groupe Irish Distillers.
-Entre 1988 et 1989, Pernod Ricard reprend le contrôle d'Irish Distillers[1],[2].
+Entre 1988 et 1989, Pernod Ricard reprend le contrôle d'Irish Distillers,.
 </t>
         </is>
       </c>
@@ -503,7 +515,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>John_Power_%26_Son</t>
+          <t>John_Power_&amp;_Son</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,11 +533,13 @@
           <t>La production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La distillerie n’existe plus à Dublin, mais la marque Powers est toujours d’actualité. Irish Distillers a simplement transféré la production dans la distillerie ultra moderne de Midleton.
-Powers Gold Label. Il s’agit d’un blend compose approximativement de 70 % de pure pot still whiskey et 30 % de whisky de grain[3]. Il s’en vend environ 2,5 millions de bouteilles par an[4]. Ce whiskey est un des plus populaires en Irlande.
-Powers 12 Year Old Reserve. La marque premium de Powers. C’est un blend compose d’une très forte proportion de pure pot still whiskeys âgés de 12 à 24 ans[5].</t>
+Powers Gold Label. Il s’agit d’un blend compose approximativement de 70 % de pure pot still whiskey et 30 % de whisky de grain. Il s’en vend environ 2,5 millions de bouteilles par an. Ce whiskey est un des plus populaires en Irlande.
+Powers 12 Year Old Reserve. La marque premium de Powers. C’est un blend compose d’une très forte proportion de pure pot still whiskeys âgés de 12 à 24 ans.</t>
         </is>
       </c>
     </row>
